--- a/esp8266文档.xlsx
+++ b/esp8266文档.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="模块引脚" sheetId="1" r:id="rId1"/>
@@ -5719,10 +5719,35 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>uint8 link_status;</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
+            <a:t>     uint8 link_status;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" smtClean="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    struct ip_info info;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>     </a:t>
+          </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1400" smtClean="0">
               <a:solidFill>
@@ -5748,6 +5773,18 @@
         </a:p>
         <a:p>
           <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>     </a:t>
+          </a:r>
+          <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1400" smtClean="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
@@ -5760,6 +5797,28 @@
           </a:r>
         </a:p>
         <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" smtClean="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>     </a:t>
+          </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1400" smtClean="0">
               <a:solidFill>
@@ -5774,6 +5833,18 @@
         </a:p>
         <a:p>
           <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>     </a:t>
+          </a:r>
+          <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1400" smtClean="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
@@ -5787,6 +5858,18 @@
         </a:p>
         <a:p>
           <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>          </a:t>
+          </a:r>
+          <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1400" smtClean="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
@@ -5808,36 +5891,106 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>     switch(link_status)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" smtClean="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> {</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" smtClean="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>  case STATION_CONNECTING :</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
+            <a:t>     </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>     </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" smtClean="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>switch(link_status)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" smtClean="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>          </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" smtClean="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>{</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>               </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" smtClean="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    case STATION_CONNECTING :</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>                                  </a:t>
+          </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1400" smtClean="0">
               <a:solidFill>
@@ -5874,28 +6027,52 @@
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" smtClean="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>     case STATION_WRONG_PASSWORD :</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" smtClean="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>  os_printf("\nwifi</a:t>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>                 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" smtClean="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  case STATION_WRONG_PASSWORD :</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>                                    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" smtClean="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> os_printf("\nwifi</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1400" smtClean="0">
@@ -5922,6 +6099,18 @@
         </a:p>
         <a:p>
           <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>                 </a:t>
+          </a:r>
+          <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1400" smtClean="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
@@ -5935,15 +6124,27 @@
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" smtClean="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>  os_printf("\nwifi</a:t>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>                                    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" smtClean="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> os_printf("\nwifi</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1400" smtClean="0">
@@ -5970,6 +6171,18 @@
         </a:p>
         <a:p>
           <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>                 </a:t>
+          </a:r>
+          <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1400" smtClean="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
@@ -5983,15 +6196,27 @@
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" smtClean="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>  os_printf("\nwifi</a:t>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>                                    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" smtClean="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>os_printf("\nwifi</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1400" smtClean="0">
@@ -6018,6 +6243,18 @@
         </a:p>
         <a:p>
           <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>                 </a:t>
+          </a:r>
+          <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1400" smtClean="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
@@ -6031,15 +6268,52 @@
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" smtClean="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>  os_printf("\nwifi</a:t>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>                                    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" smtClean="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> wifi_get_ip_info( STATION_IF,&amp;info);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>                                    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" smtClean="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>os_printf("\nwifi</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1400" smtClean="0">
@@ -6083,10 +6357,55 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>\n");return;</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
+            <a:t>:"IPSTR"",IP2STR(&amp;info.ip));</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" smtClean="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>                                    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" smtClean="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> return;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>                 </a:t>
+          </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1400" smtClean="0">
               <a:solidFill>
@@ -6287,10 +6606,22 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>struct station_config stationConf;</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
+            <a:t>      struct station_config stationConf;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>      </a:t>
+          </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1400" smtClean="0">
               <a:solidFill>
@@ -6338,6 +6669,18 @@
         </a:p>
         <a:p>
           <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>      </a:t>
+          </a:r>
+          <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1400" smtClean="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
@@ -6384,6 +6727,18 @@
         </a:p>
         <a:p>
           <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>      </a:t>
+          </a:r>
+          <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1400" smtClean="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
@@ -6419,6 +6774,18 @@
         </a:p>
         <a:p>
           <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>      </a:t>
+          </a:r>
+          <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1400" smtClean="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
@@ -6454,6 +6821,18 @@
         </a:p>
         <a:p>
           <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>      </a:t>
+          </a:r>
+          <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1400" smtClean="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
@@ -6478,6 +6857,18 @@
         </a:p>
         <a:p>
           <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>      </a:t>
+          </a:r>
+          <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1400" smtClean="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
@@ -6501,6 +6892,18 @@
           </a:r>
         </a:p>
         <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>      </a:t>
+          </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1400" smtClean="0">
               <a:solidFill>
@@ -6956,6 +7359,18 @@
             <a:t> </a:t>
           </a:r>
           <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>                     </a:t>
+          </a:r>
+          <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1400" smtClean="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
@@ -6980,6 +7395,30 @@
         </a:p>
         <a:p>
           <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>                    </a:t>
+          </a:r>
+          <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1400" smtClean="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
@@ -7049,6 +7488,30 @@
           </a:r>
         </a:p>
         <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>                    </a:t>
+          </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1400" smtClean="0">
               <a:solidFill>
@@ -16940,7 +17403,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="I16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
@@ -16986,7 +17449,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="H16:I17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A58" workbookViewId="0">
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
@@ -17014,7 +17477,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="A99" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>

--- a/esp8266文档.xlsx
+++ b/esp8266文档.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="模块引脚" sheetId="1" r:id="rId1"/>
@@ -15,13 +15,14 @@
     <sheet name="soft_AP的操作" sheetId="5" r:id="rId6"/>
     <sheet name="UDP操作" sheetId="8" r:id="rId7"/>
     <sheet name="cJSON的解析" sheetId="9" r:id="rId8"/>
+    <sheet name="GPIO操作" sheetId="10" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="6">
   <si>
     <t>GPIO14  /  HSPI_CLK</t>
   </si>
@@ -46,8 +47,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,6 +134,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -164,7 +233,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -215,7 +284,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
           <a:stretch>
             <a:fillRect/>
           </a:stretch>
@@ -1515,7 +1584,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2998,6 +3067,76 @@
           </a:r>
         </a:p>
         <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" altLang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0" smtClean="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>   #include "osapi.h"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" altLang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0" smtClean="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>   #include "ets_sys.h"</a:t>
+          </a:r>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" smtClean="0">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
@@ -3062,17 +3201,23 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" smtClean="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>   #include "/include/osapi.h"</a:t>
-          </a:r>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1400" smtClean="0">
               <a:solidFill>
@@ -6359,14 +6504,6 @@
             </a:rPr>
             <a:t>:"IPSTR"",IP2STR(&amp;info.ip));</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" smtClean="0">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
@@ -9559,7 +9696,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
           <a:stretch>
             <a:fillRect/>
           </a:stretch>
@@ -17024,15 +17161,3575 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="矩形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="13335000" cy="13477875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1" smtClean="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1.GPIO</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1" smtClean="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>需要到的头文件</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" smtClean="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" smtClean="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>#include "c_types.h"//</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" smtClean="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>类型使用</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" smtClean="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>#include "gpio.h"//gpio</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" smtClean="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>头文件</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" smtClean="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>#include "eagle_soc.h"// </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" smtClean="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>引脚名宏定义</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" smtClean="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1800" b="1" smtClean="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1" smtClean="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1" smtClean="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>将一个</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1" smtClean="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>IO</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1" smtClean="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>口配置为</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1" smtClean="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>GPIO</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1" smtClean="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>模式</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1" smtClean="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1" smtClean="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>引脚名称 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1" smtClean="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1" baseline="0" smtClean="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1" smtClean="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>GPIO</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1" smtClean="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>号</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1" smtClean="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" baseline="0" smtClean="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>PIN_FUNC_SELECT(PERIPHS_IO_MUX_GPIO4_U,FUNC_GPIO4) ; </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" baseline="0" smtClean="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>PIN_FUNC_SELECT(PERIPHS_IO_MUX_GPIO5_U,FUNC_GPIO5);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" baseline="0" smtClean="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>PIN_FUNC_SELECT(PERIPHS_IO_MUX_MTMS_U,FUNC_GPIO14);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" smtClean="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1" smtClean="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>3.GPIO</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1" smtClean="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>输入输出</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1" smtClean="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1" smtClean="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>多个</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1" smtClean="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>IO</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1" smtClean="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>同时操作</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1" smtClean="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" smtClean="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" smtClean="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>gpio_output_set(     </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" smtClean="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>BIT5|BIT14</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" smtClean="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>,                     </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" smtClean="0">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>BIT4</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" smtClean="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>,                       </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" smtClean="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>BIT5|BIT14|BIT4</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" smtClean="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>,                </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0" smtClean="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" smtClean="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>   </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" smtClean="0">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>0 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" smtClean="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>         );//</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" smtClean="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>设置</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" smtClean="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>gpio</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" smtClean="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>口的状态</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" smtClean="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" smtClean="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>                 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0" smtClean="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>         </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" smtClean="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>//(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" smtClean="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>输出为高电平的位</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" smtClean="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" smtClean="0">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>输出为低电平的位</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" smtClean="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>,    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" smtClean="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>配置为输出的位</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" smtClean="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>,   </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" smtClean="0">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>配置为输入的位</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" smtClean="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" smtClean="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>                          //( </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0" smtClean="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>   </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" smtClean="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>为</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" smtClean="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>0</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" smtClean="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>状态不改变 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" smtClean="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>,       </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" smtClean="0">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>为</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" smtClean="0">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>0</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" smtClean="0">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>状态不改变  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" smtClean="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>,     </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" smtClean="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>为</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" smtClean="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>0</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" smtClean="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>不进行配置</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" smtClean="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>,    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="zh-CN" altLang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0" smtClean="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>为</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0" smtClean="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>0</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="zh-CN" altLang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0" smtClean="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>不进行配置</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0" smtClean="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0" smtClean="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="0" lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0" smtClean="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uLnTx/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1" noProof="0" smtClean="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>4.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1" noProof="0" smtClean="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>单个</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1" noProof="0" smtClean="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>IO</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1" noProof="0" smtClean="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>口精细操作</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1800" b="1" noProof="0" smtClean="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" noProof="0" smtClean="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" noProof="0" smtClean="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>设置上下拉电阻</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" noProof="0" smtClean="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" noProof="0" smtClean="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>PIN_PULLUP_DIS( PIN_NAME )//</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" noProof="0" smtClean="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>不使用上拉模式</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" noProof="0" smtClean="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t/>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" noProof="0" smtClean="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" noProof="0" smtClean="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>PIN_PULLUP_EN( PIN_NAME )//</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" noProof="0" smtClean="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>使能上拉模式</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" noProof="0" smtClean="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" noProof="0" smtClean="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" noProof="0" smtClean="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" noProof="0" smtClean="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>设置为输出模式输出高低电平</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" noProof="0" smtClean="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" noProof="0" smtClean="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>GPIO_OUTPUT_SET( gpio_no,  0 ) //</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" noProof="0" smtClean="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>输出低电平</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" noProof="0" smtClean="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0" smtClean="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>GPIO_OUTPUT_SET( gpio_no,  1 ) //</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="zh-CN" altLang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0" smtClean="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>输出高电平</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="0" lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0" smtClean="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uLnTx/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="0" lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0" smtClean="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uLnTx/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0" smtClean="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>3.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="zh-CN" altLang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0" smtClean="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>设置为输入模式，读取高低电平</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="0" lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0" smtClean="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uLnTx/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0" smtClean="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>GPIO_DIS_OUTPUT( gpio_no )//</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="zh-CN" altLang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0" smtClean="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>设置为输入模式</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="0" lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0" smtClean="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uLnTx/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0" smtClean="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>int   a =  GPIO_INPUT_GET(gpio_no)//</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="zh-CN" altLang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0" smtClean="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>整型</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0" smtClean="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>a</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="zh-CN" altLang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0" smtClean="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>将得到对应管脚的电平状态</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="0" lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0" smtClean="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uLnTx/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="0" lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0" smtClean="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uLnTx/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1" noProof="0" smtClean="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>5.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1" noProof="0" smtClean="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>范例</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1800" b="1" noProof="0" smtClean="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0" smtClean="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>PIN_FUNC_SELECT(PERIPHS_IO_MUX_MTMS_U, FUNC_GPIO14);//</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="zh-CN" altLang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0" smtClean="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>选择</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0" smtClean="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>GPIO14 </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0" smtClean="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>PIN_FUNC_SELECT(PERIPHS_IO_MUX_GPIO2_U,  FUNC_GPIO2  );//</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="zh-CN" altLang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0" smtClean="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>选择</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0" smtClean="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>GPIO2 </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0" smtClean="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>GPIO_DIS_OUTPUT(GPIO_ID_PIN(2)) ; // </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="zh-CN" altLang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0" smtClean="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>设置</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0" smtClean="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>GPIO2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="zh-CN" altLang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0" smtClean="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>为输入 </a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="0" lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0" smtClean="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uLnTx/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0" smtClean="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>GPIO_OUTPUT_SET(GPIO_ID_PIN(14), 1);//GPIO14</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="zh-CN" altLang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0" smtClean="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>为高 </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="0" lang="zh-CN" altLang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0" smtClean="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uLnTx/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="zh-CN" altLang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0" smtClean="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0" smtClean="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>while(1) </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0" smtClean="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> { </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0" smtClean="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    system_soft_wdt_feed();//</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="zh-CN" altLang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0" smtClean="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>这里我们喂下看门狗 ，不让看门狗复位      </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="zh-CN" altLang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0" smtClean="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0" smtClean="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>if(GPIO_INPUT_GET(GPIO_ID_PIN(2))==0x00)//</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="zh-CN" altLang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0" smtClean="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>读取</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0" smtClean="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>GPIO2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="zh-CN" altLang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0" smtClean="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>的值，按键按下为</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0" smtClean="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>0 </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0" smtClean="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    { </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0" smtClean="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        delay_ms(20);//</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="zh-CN" altLang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0" smtClean="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>延时</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0" smtClean="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>20MS</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="zh-CN" altLang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0" smtClean="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>去抖 </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="zh-CN" altLang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0" smtClean="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>       </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0" smtClean="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>if(GPIO_INPUT_GET(GPIO_ID_PIN(2))==0x00) </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0" smtClean="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>       { </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0" smtClean="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>              bz++;	 </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0" smtClean="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>              if(bz==2)bz=0;	 </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0" smtClean="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>              if(bz==1)GPIO_OUTPUT_SET(GPIO_ID_PIN(14), 0); //GPIO16</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="zh-CN" altLang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0" smtClean="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>为低 </a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="0" lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0" smtClean="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uLnTx/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0" smtClean="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>              if(bz==0)GPIO_OUTPUT_SET(GPIO_ID_PIN(14), 1); //GPIO16</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="zh-CN" altLang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0" smtClean="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>为高 </a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="0" lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0" smtClean="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uLnTx/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0" smtClean="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>              while(GPIO_INPUT_GET(GPIO_ID_PIN(2))==0x00);//</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="zh-CN" altLang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0" smtClean="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>等待按键释放 </a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="0" lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0" smtClean="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uLnTx/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0" smtClean="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>         }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0" smtClean="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>       }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0" smtClean="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0" smtClean="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t/>
+          </a:r>
+          <a:br>
+            <a:rPr kumimoji="0" lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0" smtClean="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0" smtClean="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t/>
+          </a:r>
+          <a:br>
+            <a:rPr kumimoji="0" lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0" smtClean="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:endParaRPr kumimoji="0" lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0" smtClean="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uLnTx/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="0" lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0" smtClean="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uLnTx/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="0" lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0" smtClean="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uLnTx/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" noProof="0" smtClean="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" noProof="0" smtClean="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t/>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" noProof="0" smtClean="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" noProof="0" smtClean="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" noProof="0" smtClean="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0" noProof="0" smtClean="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" noProof="0" smtClean="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t/>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" noProof="0" smtClean="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" noProof="0" smtClean="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" noProof="0" smtClean="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" smtClean="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2056" name="Picture 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8524875" y="3133725"/>
+          <a:ext cx="2466975" cy="5019675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="A0A0A0"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -17099,7 +20796,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -17134,7 +20830,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -17310,21 +21005,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B20:N22"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="P40" sqref="P40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="20" spans="2:14" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" ht="20.25">
       <c r="N20" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:14" ht="15" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:14" ht="15">
       <c r="B22" s="1" t="s">
         <v>0</v>
       </c>
@@ -17338,16 +21033,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="F10"/>
   <sheetViews>
     <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="10" spans="6:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="6:6">
       <c r="F10" t="s">
         <v>2</v>
       </c>
@@ -17360,14 +21055,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17377,16 +21072,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="16" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="9:9">
       <c r="I16" t="s">
         <v>3</v>
       </c>
@@ -17400,16 +21095,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="16" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="9:9">
       <c r="I16" t="s">
         <v>3</v>
       </c>
@@ -17423,16 +21118,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I61" sqref="I61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="16" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="9:9">
       <c r="I16" t="s">
         <v>3</v>
       </c>
@@ -17446,21 +21141,21 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="H16:I17"/>
   <sheetViews>
     <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="H89" sqref="H89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="16" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="9:9">
       <c r="I16" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="8:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="8:8">
       <c r="H17" t="s">
         <v>4</v>
       </c>
@@ -17474,24 +21169,52 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A22"/>
   <sheetViews>
-    <sheetView topLeftCell="A99" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" s="3" customFormat="1" ht="18.75">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="22" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="22" s="4" customFormat="1" ht="18.75"/>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="H16:I17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="H85" sqref="H85"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="16" spans="9:9">
+      <c r="I16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="8:8">
+      <c r="H17" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/esp8266文档.xlsx
+++ b/esp8266文档.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="模块引脚" sheetId="1" r:id="rId1"/>
@@ -6359,14 +6359,6 @@
             </a:rPr>
             <a:t>:"IPSTR"",IP2STR(&amp;info.ip));</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" smtClean="0">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
@@ -10749,7 +10741,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>void ICACHE_FLASH_ATTR user_udp_recv_cb(void *arg,char *pdata,unsigned short len)//</a:t>
+            <a:t>void ICACHE_FLASH_ATTR user_udp_recv_cb(void *arg,char *pdata,unsigned short len) //</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1600" smtClean="0">
@@ -10862,6 +10854,16 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" smtClean="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1400" smtClean="0">
               <a:solidFill>
@@ -10971,7 +10973,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>void ICACHE_FLASH_ATTR user_udp_sent_cb(void *arg)</a:t>
+            <a:t>void ICACHE_FLASH_ATTR user_udp_sent_cb(void *arg) </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
@@ -10982,7 +10984,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>)//</a:t>
+            <a:t>//</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="zh-CN" sz="1400">
@@ -17403,7 +17405,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
+    <sheetView topLeftCell="A166" workbookViewId="0">
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
@@ -17449,7 +17451,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="H16:I17"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
